--- a/stash size.xlsx
+++ b/stash size.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\npsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="2 hashes" sheetId="2" r:id="rId1"/>
+    <sheet name="3 hashes" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>n/trial</t>
   </si>
@@ -53,21 +54,22 @@
   <si>
     <t>2n bins</t>
   </si>
+  <si>
+    <t>n bins</t>
+  </si>
+  <si>
+    <t>1.05n bins</t>
+  </si>
+  <si>
+    <t>1.15n bins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,28 +170,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,697 +502,697 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="11.7109375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="2">
         <v>8</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="2">
         <f>B2+4</f>
         <v>12</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="2">
         <f t="shared" ref="D2:F2" si="0">C2+4</f>
         <v>16</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="2">
         <v>8</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="2">
         <f>I2+4</f>
         <v>12</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="2">
         <f t="shared" ref="K2:M2" si="1">J2+4</f>
         <v>16</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="2">
         <v>10</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="3">
         <v>37</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="3">
         <v>533</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="3">
         <v>7908</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="3">
         <v>125469</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="H3" s="9">
+      <c r="F3" s="3"/>
+      <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="3">
         <v>32</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="3">
         <v>366</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="3">
         <v>5696</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="3">
         <v>88547</v>
       </c>
-      <c r="M3" s="10"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="2">
         <v>15</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="3">
         <v>44</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="3">
         <v>537</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="3">
         <v>8005</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="3">
         <v>125683</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="H4" s="9">
+      <c r="F4" s="3"/>
+      <c r="H4" s="2">
         <v>15</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="3">
         <v>36</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="3">
         <v>398</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="3">
         <v>5794</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="2">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
         <v>49</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="3">
         <v>557</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="H5" s="9">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="H8" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="2">
         <f>B9+4</f>
         <v>12</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="2">
         <f t="shared" ref="D9:F9" si="2">C9+4</f>
         <v>16</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="2">
         <f>I9+4</f>
         <v>12</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="2">
         <f t="shared" ref="K9:M9" si="3">J9+4</f>
         <v>16</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="3">
         <v>14</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="3">
         <v>126</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="3">
         <v>1487</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="3">
         <v>22168</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="9">
+      <c r="F10" s="3"/>
+      <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="3">
         <v>3</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="3">
         <v>4</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="3">
         <v>18</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="2">
         <v>15</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="3">
         <v>17</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="3">
         <v>135</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="3">
         <v>1511</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="9">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="H11" s="2">
         <v>15</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="3">
         <v>4</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="3">
         <v>6</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="3">
         <v>9</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="8">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="1">
         <v>10</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="1">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="9">
-        <v>20</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="O12" s="8">
+      <c r="A12" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="H12" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="1">
         <v>15</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="1">
         <v>220</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="1">
         <f>P12/P11</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="O13" s="8">
-        <v>20</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="O13" s="1">
+        <v>20</v>
+      </c>
+      <c r="P13" s="1">
         <f>P12*Q12</f>
         <v>244.44444444444446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="2">
         <v>2.4</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="2">
         <f>C16+1</f>
         <v>4</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="2">
         <f>D16+1</f>
         <v>5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="2">
         <f t="shared" ref="F16:G16" si="4">E16+1</f>
         <v>6</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="2">
         <f>G16+1</f>
         <v>8</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="2">
         <f t="shared" ref="I16:J16" si="5">H16+1</f>
         <v>9</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K16" s="9">
-        <v>20</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="K16" s="2">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2">
         <v>100</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>20</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="S17" s="8">
+      <c r="A17" s="2">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="S17" s="1">
         <f>LOG(L10,2)</f>
         <v>4.1699250014423122</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="2">
         <v>25</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="2">
         <v>30</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="2">
         <v>2.4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="2">
         <f>C23+1</f>
         <v>4</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="2">
         <f>D23+1</f>
         <v>5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="2">
         <f t="shared" ref="F23:G23" si="6">E23+1</f>
         <v>6</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="2">
         <f>G23+1</f>
         <v>8</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="2">
         <f t="shared" ref="I23:J23" si="7">H23+1</f>
         <v>9</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="2">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="K23" s="9">
-        <v>20</v>
-      </c>
-      <c r="L23" s="9">
+      <c r="K23" s="2">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2">
         <v>100</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="2">
         <v>30</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="2">
         <v>2.4</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="2">
         <f>C30+1</f>
         <v>4</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="2">
         <f>D30+1</f>
         <v>5</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="2">
         <f t="shared" ref="F30:G30" si="8">E30+1</f>
         <v>6</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="2">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="2">
         <f>G30+1</f>
         <v>8</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="2">
         <f t="shared" ref="I30:J30" si="9">H30+1</f>
         <v>9</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="K30" s="9">
-        <v>20</v>
-      </c>
-      <c r="L30" s="9">
+      <c r="K30" s="2">
+        <v>20</v>
+      </c>
+      <c r="L30" s="2">
         <v>100</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>20</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="A31" s="2">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="2">
         <v>25</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1214,155 +1210,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P26"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
-        <f>B3+1</f>
+      <c r="C2" s="2">
+        <f>B2+1</f>
         <v>11</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:P3" si="0">C3+1</f>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:F2" si="0">C2+1</f>
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E2" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F2" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="P3" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1">
-        <v>274</v>
-      </c>
-      <c r="D4" s="1">
-        <v>533</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1046</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2038</v>
-      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3">
+        <v>165</v>
+      </c>
+      <c r="D3" s="3">
+        <v>305</v>
+      </c>
+      <c r="E3" s="3">
+        <v>576</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1113</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>163</v>
-      </c>
-      <c r="C5" s="1">
-        <v>293</v>
-      </c>
-      <c r="D5" s="1">
-        <v>557</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1087</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2103</v>
-      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1375,98 +1311,356 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B9" s="2">
+        <f>B2</f>
         <v>10</v>
       </c>
-      <c r="C23" s="3">
-        <f>B23+1</f>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:F9" si="1">C2</f>
         <v>11</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" ref="D23:F23" si="1">C23+1</f>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>A3</f>
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3">
+        <v>98</v>
+      </c>
+      <c r="D10" s="3">
+        <v>160</v>
+      </c>
+      <c r="E10" s="3">
+        <v>301</v>
+      </c>
+      <c r="F10" s="3">
+        <v>545</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f t="shared" ref="A11:A12" si="2">A4</f>
+        <v>25</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <f>B16+4</f>
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:F16" si="3">C16+4</f>
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f>A10</f>
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>244</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f t="shared" ref="A18:A19" si="4">A11</f>
+        <v>25</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B2</f>
         <v>10</v>
       </c>
-      <c r="B24" s="1">
-        <v>141</v>
-      </c>
-      <c r="C24" s="1">
-        <v>274</v>
-      </c>
-      <c r="D24" s="1">
-        <v>533</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1046</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1">
-        <v>163</v>
-      </c>
-      <c r="C25" s="1">
-        <v>293</v>
-      </c>
-      <c r="D25" s="1">
-        <v>557</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1087</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:F23" si="5">C2</f>
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f>A17</f>
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f t="shared" ref="A25:A26" si="6">A18</f>
+        <v>25</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B9</f>
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:F30" si="7">C9</f>
+        <v>11</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="O30">
+        <f>2/0.17</f>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f>A24</f>
+        <v>20</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f t="shared" ref="A32:A33" si="8">A25</f>
+        <v>25</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B22:F22"/>
+  <mergeCells count="5">
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stash size.xlsx
+++ b/stash size.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2 hashes" sheetId="2" r:id="rId1"/>
     <sheet name="3 hashes" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="16" sheetId="3" r:id="rId3"/>
+    <sheet name="12" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -201,6 +202,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437670</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32E7FC1-629A-4DD3-AB26-BA7D878FF98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="114300"/>
+          <a:ext cx="3838095" cy="1600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>399619</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B737EDD2-F554-4321-BEB5-E173A0900C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3447619" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,23 +1333,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
-        <f>B2+1</f>
-        <v>11</v>
+        <f>B2+4</f>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:F2" si="0">C2+1</f>
-        <v>12</v>
+        <f t="shared" ref="D2:F2" si="0">C2+4</f>
+        <v>16</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1258,21 +1357,11 @@
       <c r="A3" s="2">
         <v>20</v>
       </c>
-      <c r="B3" s="3">
-        <v>92</v>
-      </c>
-      <c r="C3" s="3">
-        <v>165</v>
-      </c>
-      <c r="D3" s="3">
-        <v>305</v>
-      </c>
-      <c r="E3" s="3">
-        <v>576</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1113</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1344,23 +1433,23 @@
       </c>
       <c r="B9" s="2">
         <f>B2</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:F9" si="1">C2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1369,21 +1458,11 @@
         <f>A3</f>
         <v>20</v>
       </c>
-      <c r="B10" s="3">
-        <v>52</v>
-      </c>
-      <c r="C10" s="3">
-        <v>98</v>
-      </c>
-      <c r="D10" s="3">
-        <v>160</v>
-      </c>
-      <c r="E10" s="3">
-        <v>301</v>
-      </c>
-      <c r="F10" s="3">
-        <v>545</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1452,9 +1531,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>244</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1496,23 +1573,23 @@
       </c>
       <c r="B23" s="2">
         <f>B2</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ref="C23:F23" si="5">C2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -1520,21 +1597,11 @@
         <f>A17</f>
         <v>20</v>
       </c>
-      <c r="B24" s="3">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3">
-        <v>12</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -1574,23 +1641,23 @@
       </c>
       <c r="B30" s="2">
         <f>B9</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ref="C30:F30" si="7">C9</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O30">
         <f>2/0.17</f>
@@ -1602,21 +1669,11 @@
         <f>A24</f>
         <v>20</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1657,10 +1714,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/stash size.xlsx
+++ b/stash size.xlsx
@@ -9,13 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2 hashes" sheetId="2" r:id="rId1"/>
     <sheet name="3 hashes" sheetId="1" r:id="rId2"/>
-    <sheet name="16" sheetId="3" r:id="rId3"/>
-    <sheet name="12" sheetId="4" r:id="rId4"/>
+    <sheet name="20" sheetId="5" r:id="rId3"/>
+    <sheet name="16" sheetId="3" r:id="rId4"/>
+    <sheet name="12" sheetId="4" r:id="rId5"/>
+    <sheet name="4 parties" sheetId="6" r:id="rId6"/>
+    <sheet name="5p" sheetId="7" r:id="rId7"/>
+    <sheet name="8p" sheetId="8" r:id="rId8"/>
+    <sheet name="10" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>n/trial</t>
   </si>
@@ -63,6 +68,9 @@
   </si>
   <si>
     <t>1.15n bins</t>
+  </si>
+  <si>
+    <t>trieun@onid.oregonstate.edu</t>
   </si>
 </sst>
 </file>
@@ -209,6 +217,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18362</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD772AA-CA97-422D-8D53-C3F7FA5E86EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5504762" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -253,7 +310,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -291,6 +348,202 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="3447619" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132876</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B44C0B-F0D5-44D6-97E9-BDE81780FEE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3790476" cy="2438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361423</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>94881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B836F3B9-DF41-496E-A518-D5BFCC5422F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="0"/>
+          <a:ext cx="4219048" cy="2952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409143</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBB8CF0-53C7-4132-B55C-D009186E52BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3457143" cy="3000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275733</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6AC9A2-9A29-44FF-AA31-826BF8B2B732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="3933333" cy="3628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1714,9 +1967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1729,7 +1980,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1738,4 +2004,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>